--- a/試験点数分析ブック.xlsx
+++ b/試験点数分析ブック.xlsx
@@ -448,8 +448,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -547,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -570,12 +571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -587,6 +582,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,9 +635,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10371978438756536"/>
-          <c:y val="0.18590820378221953"/>
+          <c:y val="0.18590820378221959"/>
           <c:w val="0.86564257472930972"/>
-          <c:h val="0.60471162258563838"/>
+          <c:h val="0.6047116225856386"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -734,26 +738,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="0"/>
-        <c:axId val="144584704"/>
-        <c:axId val="144586240"/>
+        <c:axId val="147399040"/>
+        <c:axId val="147400576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144584704"/>
+        <c:axId val="147399040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144586240"/>
+        <c:crossAx val="147400576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144586240"/>
+        <c:axId val="147400576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +764,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144584704"/>
+        <c:crossAx val="147399040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -772,10 +775,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0501722274573626E-2"/>
+          <c:x val="8.0501722274573639E-2"/>
           <c:y val="4.768591426071743E-2"/>
           <c:w val="0.18116156372948311"/>
-          <c:h val="7.7277407631738335E-2"/>
+          <c:h val="7.7277407631738348E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -784,7 +787,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1113,7 +1116,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -1134,27 +1137,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="9"/>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="12">
+      <c r="B2" s="12"/>
+      <c r="C2" s="10">
         <v>43130</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="9"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1191,14 +1194,14 @@
         <f>IF(B4&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>58</v>
       </c>
-      <c r="D4" s="2">
-        <f>ROUND(50+(10*((C4-$G$5)/$G$9)),0)</f>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D53" si="0">ROUND(50+(10*((C4-$G$5)/$G$9)),1)</f>
         <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1228,15 +1231,15 @@
         <f>IF(B5&lt;&gt;"",A4+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>95</v>
       </c>
-      <c r="D5" s="2">
-        <f>ROUND(50+(10*((C5-$G$5)/$G$9)),0)</f>
-        <v>70</v>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>70.099999999999994</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -1262,18 +1265,18 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A51" si="0">IF(B6&lt;&gt;"",A5+1,"")</f>
+        <f t="shared" ref="A6:A51" si="1">IF(B6&lt;&gt;"",A5+1,"")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>63</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D53" si="1">ROUND(50+(10*((C6-$G$5)/$G$9)),0)</f>
-        <v>53</v>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>52.7</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
@@ -1299,18 +1302,18 @@
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>55</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>48</v>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>48.4</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -1336,18 +1339,18 @@
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>29</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>34</v>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>34.200000000000003</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -1370,18 +1373,18 @@
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>27.7</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>13</v>
@@ -1404,18 +1407,18 @@
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>57</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>49</v>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>31</v>
@@ -1438,17 +1441,17 @@
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>58</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -1465,18 +1468,18 @@
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>17</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>27.7</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>25</v>
@@ -1492,18 +1495,18 @@
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>55</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>48</v>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>48.4</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>26</v>
@@ -1519,18 +1522,18 @@
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>24</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>27</v>
@@ -1543,594 +1546,594 @@
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>47</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>70</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>46</v>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>45.7</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1">
       <c r="A18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>81</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>62</v>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1">
       <c r="A19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>41</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>41</v>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1">
       <c r="A20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>34</v>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>33.700000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1">
       <c r="A21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>61</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>52</v>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>51.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1">
       <c r="A22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>79</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>61</v>
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
+        <v>61.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1">
       <c r="A23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>71</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
+        <v>57.1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1">
       <c r="A24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>74</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>59</v>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
+        <v>58.7</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1">
       <c r="A25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>34</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1">
       <c r="A26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>45</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>43</v>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
       <c r="A27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>80</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="1"/>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1">
       <c r="A28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>65</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>53.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1">
       <c r="A29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>85</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>65</v>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>64.7</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1">
       <c r="A30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>62</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>52</v>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>52.2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1">
       <c r="A31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>63</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>52.7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1">
       <c r="A32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>80</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1">
       <c r="A33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>73</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>58</v>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>58.2</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1">
       <c r="A34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>72</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>58</v>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>57.6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1">
       <c r="A35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>65</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>53.8</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1">
       <c r="A36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>45</v>
       </c>
-      <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>43</v>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1">
       <c r="A37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>57</v>
       </c>
-      <c r="D37" s="2">
-        <f t="shared" si="1"/>
-        <v>49</v>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1">
       <c r="A38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>70</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1">
       <c r="A39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>63</v>
       </c>
-      <c r="D39" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
+      <c r="D39" s="13">
+        <f t="shared" si="0"/>
+        <v>52.7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1">
       <c r="A40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>78</v>
       </c>
-      <c r="D40" s="2">
-        <f t="shared" si="1"/>
-        <v>61</v>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
+        <v>60.9</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1">
       <c r="A41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <v>65</v>
       </c>
-      <c r="D41" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
+      <c r="D41" s="13">
+        <f t="shared" si="0"/>
+        <v>53.8</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1">
       <c r="A42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <v>49</v>
       </c>
-      <c r="D42" s="2">
-        <f t="shared" si="1"/>
-        <v>45</v>
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
+        <v>45.1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1">
       <c r="A43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <v>63</v>
       </c>
-      <c r="D43" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
+      <c r="D43" s="13">
+        <f t="shared" si="0"/>
+        <v>52.7</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1">
       <c r="A44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>75</v>
       </c>
-      <c r="D44" s="2">
-        <f t="shared" si="1"/>
-        <v>59</v>
+      <c r="D44" s="13">
+        <f t="shared" si="0"/>
+        <v>59.2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <v>24</v>
       </c>
-      <c r="D45" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
+      <c r="D45" s="13">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1">
       <c r="A46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>68</v>
       </c>
-      <c r="D46" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
+        <v>55.4</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1">
       <c r="A47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>38</v>
       </c>
-      <c r="D47" s="2">
-        <f t="shared" si="1"/>
-        <v>39</v>
+      <c r="D47" s="13">
+        <f t="shared" si="0"/>
+        <v>39.1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1">
       <c r="A48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <v>52</v>
       </c>
-      <c r="D48" s="2">
-        <f t="shared" si="1"/>
-        <v>47</v>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
+        <v>46.7</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1">
       <c r="A49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>84</v>
       </c>
-      <c r="D49" s="2">
-        <f t="shared" si="1"/>
-        <v>64</v>
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
+        <v>64.099999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1">
       <c r="A50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>34</v>
       </c>
-      <c r="D50" s="2">
-        <f t="shared" si="1"/>
+      <c r="D50" s="13">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1">
       <c r="A51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>66</v>
       </c>
-      <c r="D51" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
+      <c r="D51" s="13">
+        <f t="shared" si="0"/>
+        <v>54.3</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1">
@@ -2138,15 +2141,15 @@
         <f t="shared" ref="A52" si="2">IF(B52&lt;&gt;"",A51+1,"")</f>
         <v>49</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>52</v>
       </c>
-      <c r="D52" s="2">
-        <f t="shared" si="1"/>
-        <v>47</v>
+      <c r="D52" s="13">
+        <f t="shared" si="0"/>
+        <v>46.7</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1">
@@ -2154,19 +2157,18 @@
         <f>IF(B53&lt;&gt;"",A52+1,"")</f>
         <v>50</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <v>61</v>
       </c>
-      <c r="D53" s="2">
-        <f t="shared" si="1"/>
-        <v>52</v>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
+        <v>51.6</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
